--- a/server/data/superflex/SuperflexRankings_June25.xlsx
+++ b/server/data/superflex/SuperflexRankings_June25.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjzachariason/Dropbox/Late-Round Fantasy Football/_Shared Drive/Patreon/Rankings/Dynasty Rankings/6_2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28a1ee50a88aa706/python_work/volatile/server/data/superflex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7649949-D79A-9543-BA2C-1E39DA67F393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F7649949-D79A-9543-BA2C-1E39DA67F393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{325FA5EB-6D12-47AE-BCEB-7332265B355B}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="7220" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{8B1390D6-95F4-C24A-B3AF-0CA9228166C8}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="28800" windowHeight="15460" xr2:uid="{8B1390D6-95F4-C24A-B3AF-0CA9228166C8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Read Me" sheetId="2" r:id="rId1"/>
-    <sheet name="Rankings and Tiers" sheetId="1" r:id="rId2"/>
+    <sheet name="Rankings and Tiers" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Rankings and Tiers'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Rankings and Tiers'!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="210">
   <si>
     <t>Overall</t>
   </si>
@@ -255,12 +254,6 @@
   </si>
   <si>
     <t>Jared Goff</t>
-  </si>
-  <si>
-    <t>By viewing this digital product, you agree that under no circumstances shall you use this digital product or any portion of this digital product for anything but your own personal use and reference. For the avoidance of doubt, you shall not copy, re-sell, sublicense, rent out, share or otherwise distribute this digital product, or any other Late-Round Fantasy Football digital product, whether modified or not, to any third party. You agree not to use any derivative of Late-Round Fantasy Football’s products in a way which might be detrimental to Late-Round Fantasy Football or damage Late-Round Fantasy Football’s reputation.</t>
-  </si>
-  <si>
-    <t>Terms</t>
   </si>
   <si>
     <t>Breece Hall</t>
@@ -684,31 +677,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -718,27 +691,15 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFCEE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -746,61 +707,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1115,108 +1034,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5DB6E3E-D5DA-BE40-9DC0-94C04F4A8891}">
-  <dimension ref="B2:C19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11" style="2"/>
-    <col min="2" max="2" width="47.796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="78" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="101" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="7" spans="2:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79AA84A-6624-1E4A-A0A6-C46EEDC7685B}">
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="D212" sqref="D212"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="10" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="6"/>
+    <col min="6" max="6" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1232,11 +1067,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F1" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1244,7 +1079,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -1252,19 +1087,19 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="2">
         <v>29.024999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -1272,11 +1107,11 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="2">
         <v>24.45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1284,7 +1119,7 @@
         <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -1292,11 +1127,11 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="2">
         <v>28.397222222222222</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1304,7 +1139,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1312,11 +1147,11 @@
       <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="2">
         <v>25.247222222222224</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1324,7 +1159,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -1332,11 +1167,11 @@
       <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="2">
         <v>25.955555555555556</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1344,7 +1179,7 @@
         <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
@@ -1352,19 +1187,19 @@
       <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="2">
         <v>26.81388888888889</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
@@ -1372,19 +1207,19 @@
       <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="2">
         <v>28.472222222222221</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -1392,19 +1227,19 @@
       <c r="E9" s="1">
         <v>3</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="2">
         <v>21.838888888888889</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1412,19 +1247,19 @@
       <c r="E10" s="1">
         <v>3</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="2">
         <v>23.333333333333332</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -1432,19 +1267,19 @@
       <c r="E11" s="1">
         <v>3</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="2">
         <v>23.194444444444443</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
@@ -1452,19 +1287,19 @@
       <c r="E12" s="1">
         <v>3</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="2">
         <v>21.491666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -1472,11 +1307,11 @@
       <c r="E13" s="1">
         <v>3</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="2">
         <v>22.463888888888889</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1484,7 +1319,7 @@
         <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D14" s="1">
         <v>6</v>
@@ -1492,19 +1327,19 @@
       <c r="E14" s="1">
         <v>3</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="2">
         <v>29.702777777777779</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D15" s="1">
         <v>4</v>
@@ -1512,19 +1347,19 @@
       <c r="E15" s="1">
         <v>3</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="2">
         <v>24.002777777777776</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D16" s="1">
         <v>5</v>
@@ -1532,11 +1367,11 @@
       <c r="E16" s="1">
         <v>3</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="2">
         <v>22.644444444444446</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1544,7 +1379,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D17" s="1">
         <v>6</v>
@@ -1552,11 +1387,11 @@
       <c r="E17" s="1">
         <v>3</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="2">
         <v>26.144444444444446</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1564,7 +1399,7 @@
         <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D18" s="1">
         <v>7</v>
@@ -1572,19 +1407,19 @@
       <c r="E18" s="1">
         <v>3</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="2">
         <v>25.6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D19" s="1">
         <v>7</v>
@@ -1592,11 +1427,11 @@
       <c r="E19" s="1">
         <v>4</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="2">
         <v>23.658333333333335</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1604,7 +1439,7 @@
         <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D20" s="1">
         <v>8</v>
@@ -1612,19 +1447,19 @@
       <c r="E20" s="1">
         <v>4</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="2">
         <v>27.222222222222221</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D21" s="1">
         <v>9</v>
@@ -1632,19 +1467,19 @@
       <c r="E21" s="1">
         <v>4</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="2">
         <v>23.533333333333335</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D22" s="1">
         <v>10</v>
@@ -1652,19 +1487,19 @@
       <c r="E22" s="1">
         <v>4</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="2">
         <v>22.75</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D23" s="1">
         <v>11</v>
@@ -1672,19 +1507,19 @@
       <c r="E23" s="1">
         <v>4</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="2">
         <v>25.263888888888889</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D24" s="1">
         <v>8</v>
@@ -1692,11 +1527,11 @@
       <c r="E24" s="1">
         <v>4</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="2">
         <v>23.85</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1704,7 +1539,7 @@
         <v>64</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D25" s="1">
         <v>9</v>
@@ -1712,19 +1547,19 @@
       <c r="E25" s="1">
         <v>4</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="2">
         <v>26.197222222222223</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D26" s="1">
         <v>10</v>
@@ -1732,19 +1567,19 @@
       <c r="E26" s="1">
         <v>4</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="2">
         <v>23.552777777777777</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D27" s="1">
         <v>11</v>
@@ -1752,19 +1587,19 @@
       <c r="E27" s="1">
         <v>4</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="2">
         <v>23.294444444444444</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="1">
         <v>4</v>
@@ -1772,11 +1607,11 @@
       <c r="E28" s="1">
         <v>4</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="2">
         <v>22.205555555555556</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1784,7 +1619,7 @@
         <v>47</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D29" s="1">
         <v>12</v>
@@ -1792,19 +1627,19 @@
       <c r="E29" s="1">
         <v>4</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="2">
         <v>27.730555555555554</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D30" s="1">
         <v>13</v>
@@ -1812,19 +1647,19 @@
       <c r="E30" s="1">
         <v>4</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="2">
         <v>25.425000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D31" s="1">
         <v>12</v>
@@ -1832,19 +1667,19 @@
       <c r="E31" s="1">
         <v>5</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="2">
         <v>22.802777777777777</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D32" s="1">
         <v>13</v>
@@ -1852,19 +1687,19 @@
       <c r="E32" s="1">
         <v>5</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="2">
         <v>22.033333333333335</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D33" s="1">
         <v>14</v>
@@ -1872,11 +1707,11 @@
       <c r="E33" s="1">
         <v>5</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="2">
         <v>22.152777777777779</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1884,7 +1719,7 @@
         <v>70</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D34" s="1">
         <v>14</v>
@@ -1892,19 +1727,19 @@
       <c r="E34" s="1">
         <v>5</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="2">
         <v>26.577777777777779</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D35" s="1">
         <v>15</v>
@@ -1912,19 +1747,19 @@
       <c r="E35" s="1">
         <v>5</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="2">
         <v>23.013888888888889</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D36" s="1">
         <v>2</v>
@@ -1932,19 +1767,19 @@
       <c r="E36" s="1">
         <v>6</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="2">
         <v>25.522222222222222</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D37" s="1">
         <v>5</v>
@@ -1952,19 +1787,19 @@
       <c r="E37" s="1">
         <v>6</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="2">
         <v>23.630555555555556</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D38" s="1">
         <v>15</v>
@@ -1972,11 +1807,11 @@
       <c r="E38" s="1">
         <v>6</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="2">
         <v>24.855555555555554</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1984,7 +1819,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D39" s="1">
         <v>6</v>
@@ -1992,11 +1827,11 @@
       <c r="E39" s="1">
         <v>6</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="2">
         <v>28.31388888888889</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2004,7 +1839,7 @@
         <v>8</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D40" s="1">
         <v>16</v>
@@ -2012,19 +1847,19 @@
       <c r="E40" s="1">
         <v>6</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="2">
         <v>27.916666666666668</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D41" s="1">
         <v>16</v>
@@ -2032,19 +1867,19 @@
       <c r="E41" s="1">
         <v>6</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="2">
         <v>30.127777777777776</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D42" s="1">
         <v>7</v>
@@ -2052,11 +1887,11 @@
       <c r="E42" s="1">
         <v>6</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="2">
         <v>22.697222222222223</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2064,7 +1899,7 @@
         <v>23</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D43" s="1">
         <v>17</v>
@@ -2072,19 +1907,19 @@
       <c r="E43" s="1">
         <v>6</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="2">
         <v>26.366666666666667</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D44" s="1">
         <v>8</v>
@@ -2092,11 +1927,11 @@
       <c r="E44" s="1">
         <v>7</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="2">
         <v>22.605555555555554</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2104,7 +1939,7 @@
         <v>7</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D45" s="1">
         <v>9</v>
@@ -2112,19 +1947,19 @@
       <c r="E45" s="1">
         <v>7</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="2">
         <v>26.363888888888887</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D46" s="1">
         <v>17</v>
@@ -2132,11 +1967,11 @@
       <c r="E46" s="1">
         <v>7</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="2">
         <v>22.361111111111111</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2144,7 +1979,7 @@
         <v>61</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D47" s="1">
         <v>18</v>
@@ -2152,19 +1987,19 @@
       <c r="E47" s="1">
         <v>7</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="2">
         <v>25.65</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D48" s="1">
         <v>19</v>
@@ -2172,19 +2007,19 @@
       <c r="E48" s="1">
         <v>7</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="2">
         <v>25.06111111111111</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D49" s="1">
         <v>10</v>
@@ -2192,19 +2027,19 @@
       <c r="E49" s="1">
         <v>7</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D50" s="1">
         <v>3</v>
@@ -2212,19 +2047,19 @@
       <c r="E50" s="1">
         <v>8</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="2">
         <v>24.383333333333333</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D51" s="1">
         <v>11</v>
@@ -2232,19 +2067,19 @@
       <c r="E51" s="1">
         <v>8</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="2">
         <v>24.611111111111111</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D52" s="1">
         <v>12</v>
@@ -2252,19 +2087,19 @@
       <c r="E52" s="1">
         <v>8</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="2">
         <v>21.502777777777776</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D53" s="1">
         <v>18</v>
@@ -2272,11 +2107,11 @@
       <c r="E53" s="1">
         <v>8</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="2">
         <v>25.105555555555554</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2284,7 +2119,7 @@
         <v>32</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D54" s="1">
         <v>19</v>
@@ -2292,19 +2127,19 @@
       <c r="E54" s="1">
         <v>9</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="2">
         <v>26.544444444444444</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D55" s="1">
         <v>13</v>
@@ -2312,19 +2147,19 @@
       <c r="E55" s="1">
         <v>9</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="2">
         <v>25.680555555555557</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D56" s="1">
         <v>20</v>
@@ -2332,11 +2167,11 @@
       <c r="E56" s="1">
         <v>9</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="2">
         <v>23.847222222222221</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2344,7 +2179,7 @@
         <v>51</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D57" s="1">
         <v>21</v>
@@ -2352,11 +2187,11 @@
       <c r="E57" s="1">
         <v>9</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="2">
         <v>31.836111111111112</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2364,7 +2199,7 @@
         <v>71</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D58" s="1">
         <v>22</v>
@@ -2372,19 +2207,19 @@
       <c r="E58" s="1">
         <v>9</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="2">
         <v>30.627777777777776</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D59" s="1">
         <v>20</v>
@@ -2392,19 +2227,19 @@
       <c r="E59" s="1">
         <v>9</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="2">
         <v>23.341666666666665</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D60" s="1">
         <v>21</v>
@@ -2412,19 +2247,19 @@
       <c r="E60" s="1">
         <v>9</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="2">
         <v>24.719444444444445</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D61" s="1">
         <v>22</v>
@@ -2432,19 +2267,19 @@
       <c r="E61" s="1">
         <v>9</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="2">
         <v>22.627777777777776</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D62" s="1">
         <v>23</v>
@@ -2452,11 +2287,11 @@
       <c r="E62" s="1">
         <v>9</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F62" s="2">
         <v>22.991666666666667</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2464,7 +2299,7 @@
         <v>43</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D63" s="1">
         <v>14</v>
@@ -2472,19 +2307,19 @@
       <c r="E63" s="1">
         <v>10</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63" s="2">
         <v>27.302777777777777</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D64" s="1">
         <v>15</v>
@@ -2492,19 +2327,19 @@
       <c r="E64" s="1">
         <v>10</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64" s="2">
         <v>25.191666666666666</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D65" s="1">
         <v>16</v>
@@ -2512,11 +2347,11 @@
       <c r="E65" s="1">
         <v>10</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="2">
         <v>24.761111111111113</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2524,7 +2359,7 @@
         <v>66</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D66" s="1">
         <v>23</v>
@@ -2532,19 +2367,19 @@
       <c r="E66" s="1">
         <v>10</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66" s="2">
         <v>27.244444444444444</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D67" s="1">
         <v>24</v>
@@ -2552,11 +2387,11 @@
       <c r="E67" s="1">
         <v>10</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67" s="2">
         <v>22.047222222222221</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2564,7 +2399,7 @@
         <v>17</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D68" s="1">
         <v>24</v>
@@ -2572,19 +2407,19 @@
       <c r="E68" s="1">
         <v>11</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F68" s="2">
         <v>26.513888888888889</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D69" s="1">
         <v>25</v>
@@ -2592,11 +2427,11 @@
       <c r="E69" s="1">
         <v>11</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F69" s="2">
         <v>22.091666666666665</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2604,7 +2439,7 @@
         <v>9</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D70" s="1">
         <v>26</v>
@@ -2612,19 +2447,19 @@
       <c r="E70" s="1">
         <v>11</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F70" s="2">
         <v>27.461111111111112</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D71" s="1">
         <v>27</v>
@@ -2632,19 +2467,19 @@
       <c r="E71" s="1">
         <v>11</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F71" s="2">
         <v>24.925000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D72" s="1">
         <v>28</v>
@@ -2652,19 +2487,19 @@
       <c r="E72" s="1">
         <v>11</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F72" s="2">
         <v>24.177777777777777</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D73" s="1">
         <v>29</v>
@@ -2672,19 +2507,19 @@
       <c r="E73" s="1">
         <v>11</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F73" s="2">
         <v>21.830555555555556</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D74" s="1">
         <v>30</v>
@@ -2692,19 +2527,19 @@
       <c r="E74" s="1">
         <v>11</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F74" s="2">
         <v>21.466666666666665</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D75" s="1">
         <v>17</v>
@@ -2712,19 +2547,19 @@
       <c r="E75" s="1">
         <v>11</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F75" s="2">
         <v>24.322222222222223</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D76" s="1">
         <v>18</v>
@@ -2732,11 +2567,11 @@
       <c r="E76" s="1">
         <v>11</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F76" s="2">
         <v>21.794444444444444</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2744,7 +2579,7 @@
         <v>15</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D77" s="1">
         <v>19</v>
@@ -2752,19 +2587,19 @@
       <c r="E77" s="1">
         <v>11</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F77" s="2">
         <v>28.980555555555554</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D78" s="1">
         <v>31</v>
@@ -2772,11 +2607,11 @@
       <c r="E78" s="1">
         <v>12</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F78" s="2">
         <v>24.238888888888887</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2784,7 +2619,7 @@
         <v>28</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D79" s="1">
         <v>32</v>
@@ -2792,11 +2627,11 @@
       <c r="E79" s="1">
         <v>12</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F79" s="2">
         <v>29.708333333333332</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2804,7 +2639,7 @@
         <v>27</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D80" s="1">
         <v>20</v>
@@ -2812,11 +2647,11 @@
       <c r="E80" s="1">
         <v>12</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F80" s="2">
         <v>31.405555555555555</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2824,7 +2659,7 @@
         <v>60</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D81" s="1">
         <v>25</v>
@@ -2832,11 +2667,11 @@
       <c r="E81" s="1">
         <v>12</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F81" s="2">
         <v>26.236111111111111</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2844,7 +2679,7 @@
         <v>29</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D82" s="1">
         <v>33</v>
@@ -2852,19 +2687,19 @@
       <c r="E82" s="1">
         <v>12</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F82" s="2">
         <v>28.127777777777776</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D83" s="1">
         <v>34</v>
@@ -2872,11 +2707,11 @@
       <c r="E83" s="1">
         <v>13</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F83" s="2">
         <v>24.725000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2884,7 +2719,7 @@
         <v>39</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D84" s="1">
         <v>35</v>
@@ -2892,11 +2727,11 @@
       <c r="E84" s="1">
         <v>13</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F84" s="2">
         <v>27.202777777777779</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2904,7 +2739,7 @@
         <v>35</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D85" s="1">
         <v>4</v>
@@ -2912,19 +2747,19 @@
       <c r="E85" s="1">
         <v>13</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F85" s="2">
         <v>31.641666666666666</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D86" s="1">
         <v>5</v>
@@ -2932,19 +2767,19 @@
       <c r="E86" s="1">
         <v>13</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F86" s="2">
         <v>21.141666666666666</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D87" s="1">
         <v>21</v>
@@ -2952,19 +2787,19 @@
       <c r="E87" s="1">
         <v>14</v>
       </c>
-      <c r="F87" s="6">
+      <c r="F87" s="2">
         <v>25.969444444444445</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D88" s="1">
         <v>6</v>
@@ -2972,19 +2807,19 @@
       <c r="E88" s="1">
         <v>14</v>
       </c>
-      <c r="F88" s="6">
+      <c r="F88" s="2">
         <v>23.016666666666666</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D89" s="1">
         <v>36</v>
@@ -2992,11 +2827,11 @@
       <c r="E89" s="1">
         <v>14</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F89" s="2">
         <v>25.324999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -3004,7 +2839,7 @@
         <v>16</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D90" s="1">
         <v>37</v>
@@ -3012,19 +2847,19 @@
       <c r="E90" s="1">
         <v>14</v>
       </c>
-      <c r="F90" s="6">
+      <c r="F90" s="2">
         <v>32.43333333333333</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D91" s="1">
         <v>26</v>
@@ -3032,19 +2867,19 @@
       <c r="E91" s="1">
         <v>14</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F91" s="2">
         <v>34.638888888888886</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D92" s="1">
         <v>27</v>
@@ -3052,19 +2887,19 @@
       <c r="E92" s="1">
         <v>14</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F92" s="2">
         <v>27.986111111111111</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D93" s="1">
         <v>38</v>
@@ -3072,11 +2907,11 @@
       <c r="E93" s="1">
         <v>14</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F93" s="2">
         <v>25.088888888888889</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3084,7 +2919,7 @@
         <v>36</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D94" s="1">
         <v>39</v>
@@ -3092,11 +2927,11 @@
       <c r="E94" s="1">
         <v>14</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F94" s="2">
         <v>26.1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3104,7 +2939,7 @@
         <v>24</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D95" s="1">
         <v>22</v>
@@ -3112,19 +2947,19 @@
       <c r="E95" s="1">
         <v>14</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F95" s="2">
         <v>28.85</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D96" s="1">
         <v>40</v>
@@ -3132,19 +2967,19 @@
       <c r="E96" s="1">
         <v>15</v>
       </c>
-      <c r="F96" s="6">
+      <c r="F96" s="2">
         <v>22.458333333333332</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D97" s="1">
         <v>41</v>
@@ -3152,11 +2987,11 @@
       <c r="E97" s="1">
         <v>15</v>
       </c>
-      <c r="F97" s="6">
+      <c r="F97" s="2">
         <v>23.25</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3164,7 +2999,7 @@
         <v>10</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D98" s="1">
         <v>42</v>
@@ -3172,11 +3007,11 @@
       <c r="E98" s="1">
         <v>15</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F98" s="2">
         <v>31.247222222222224</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3184,7 +3019,7 @@
         <v>31</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D99" s="1">
         <v>43</v>
@@ -3192,11 +3027,11 @@
       <c r="E99" s="1">
         <v>15</v>
       </c>
-      <c r="F99" s="6">
+      <c r="F99" s="2">
         <v>31.774999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3204,7 +3039,7 @@
         <v>26</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D100" s="1">
         <v>23</v>
@@ -3212,19 +3047,19 @@
       <c r="E100" s="1">
         <v>15</v>
       </c>
-      <c r="F100" s="6">
+      <c r="F100" s="2">
         <v>29.847222222222221</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D101" s="1">
         <v>28</v>
@@ -3232,11 +3067,11 @@
       <c r="E101" s="1">
         <v>15</v>
       </c>
-      <c r="F101" s="6">
+      <c r="F101" s="2">
         <v>23.022222222222222</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3244,7 +3079,7 @@
         <v>65</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D102" s="1">
         <v>29</v>
@@ -3252,11 +3087,11 @@
       <c r="E102" s="1">
         <v>15</v>
       </c>
-      <c r="F102" s="6">
+      <c r="F102" s="2">
         <v>37.31388888888889</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3264,7 +3099,7 @@
         <v>42</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D103" s="1">
         <v>24</v>
@@ -3272,19 +3107,19 @@
       <c r="E103" s="1">
         <v>15</v>
       </c>
-      <c r="F103" s="6">
+      <c r="F103" s="2">
         <v>27.980555555555554</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D104" s="1">
         <v>25</v>
@@ -3292,11 +3127,11 @@
       <c r="E104" s="1">
         <v>15</v>
       </c>
-      <c r="F104" s="6">
+      <c r="F104" s="2">
         <v>22.294444444444444</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3304,7 +3139,7 @@
         <v>40</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D105" s="1">
         <v>7</v>
@@ -3312,11 +3147,11 @@
       <c r="E105" s="1">
         <v>15</v>
       </c>
-      <c r="F105" s="6">
+      <c r="F105" s="2">
         <v>27.908333333333335</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3324,7 +3159,7 @@
         <v>21</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D106" s="1">
         <v>44</v>
@@ -3332,19 +3167,19 @@
       <c r="E106" s="1">
         <v>15</v>
       </c>
-      <c r="F106" s="6">
+      <c r="F106" s="2">
         <v>29.258333333333333</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D107" s="1">
         <v>45</v>
@@ -3352,19 +3187,19 @@
       <c r="E107" s="1">
         <v>15</v>
       </c>
-      <c r="F107" s="6">
+      <c r="F107" s="2">
         <v>23.8</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D108" s="1">
         <v>46</v>
@@ -3372,19 +3207,19 @@
       <c r="E108" s="1">
         <v>16</v>
       </c>
-      <c r="F108" s="6">
+      <c r="F108" s="2">
         <v>22.036111111111111</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D109" s="1">
         <v>47</v>
@@ -3392,19 +3227,19 @@
       <c r="E109" s="1">
         <v>16</v>
       </c>
-      <c r="F109" s="6">
+      <c r="F109" s="2">
         <v>27.888888888888889</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D110" s="1">
         <v>26</v>
@@ -3412,19 +3247,19 @@
       <c r="E110" s="1">
         <v>16</v>
       </c>
-      <c r="F110" s="6">
+      <c r="F110" s="2">
         <v>25.244444444444444</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D111" s="1">
         <v>48</v>
@@ -3432,11 +3267,11 @@
       <c r="E111" s="1">
         <v>16</v>
       </c>
-      <c r="F111" s="6">
+      <c r="F111" s="2">
         <v>22.45</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3444,7 +3279,7 @@
         <v>50</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D112" s="1">
         <v>49</v>
@@ -3452,11 +3287,11 @@
       <c r="E112" s="1">
         <v>16</v>
       </c>
-      <c r="F112" s="6">
+      <c r="F112" s="2">
         <v>29.638888888888889</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3464,7 +3299,7 @@
         <v>59</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D113" s="1">
         <v>50</v>
@@ -3472,11 +3307,11 @@
       <c r="E113" s="1">
         <v>16</v>
       </c>
-      <c r="F113" s="6">
+      <c r="F113" s="2">
         <v>28.558333333333334</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3484,7 +3319,7 @@
         <v>19</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D114" s="1">
         <v>27</v>
@@ -3492,19 +3327,19 @@
       <c r="E114" s="1">
         <v>16</v>
       </c>
-      <c r="F114" s="6">
+      <c r="F114" s="2">
         <v>26.377777777777776</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D115" s="1">
         <v>30</v>
@@ -3512,11 +3347,11 @@
       <c r="E115" s="1">
         <v>16</v>
       </c>
-      <c r="F115" s="6">
+      <c r="F115" s="2">
         <v>25.672222222222221</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3524,7 +3359,7 @@
         <v>34</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D116" s="1">
         <v>51</v>
@@ -3532,11 +3367,11 @@
       <c r="E116" s="1">
         <v>17</v>
       </c>
-      <c r="F116" s="6">
+      <c r="F116" s="2">
         <v>27.652777777777779</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3544,7 +3379,7 @@
         <v>56</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D117" s="1">
         <v>28</v>
@@ -3552,11 +3387,11 @@
       <c r="E117" s="1">
         <v>17</v>
       </c>
-      <c r="F117" s="6">
+      <c r="F117" s="2">
         <v>30.069444444444443</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3564,7 +3399,7 @@
         <v>12</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D118" s="1">
         <v>52</v>
@@ -3572,19 +3407,19 @@
       <c r="E118" s="1">
         <v>17</v>
       </c>
-      <c r="F118" s="6">
+      <c r="F118" s="2">
         <v>29.375</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D119" s="1">
         <v>31</v>
@@ -3592,19 +3427,19 @@
       <c r="E119" s="1">
         <v>17</v>
       </c>
-      <c r="F119" s="6">
+      <c r="F119" s="2">
         <v>22.463888888888889</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D120" s="1">
         <v>29</v>
@@ -3612,19 +3447,19 @@
       <c r="E120" s="1">
         <v>17</v>
       </c>
-      <c r="F120" s="6">
+      <c r="F120" s="2">
         <v>24.394444444444446</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D121" s="1">
         <v>8</v>
@@ -3632,19 +3467,19 @@
       <c r="E121" s="1">
         <v>18</v>
       </c>
-      <c r="F121" s="6">
+      <c r="F121" s="2">
         <v>25.616666666666667</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D122" s="1">
         <v>30</v>
@@ -3652,19 +3487,19 @@
       <c r="E122" s="1">
         <v>18</v>
       </c>
-      <c r="F122" s="6">
+      <c r="F122" s="2">
         <v>23.319444444444443</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D123" s="1">
         <v>31</v>
@@ -3672,19 +3507,19 @@
       <c r="E123" s="1">
         <v>18</v>
       </c>
-      <c r="F123" s="6">
+      <c r="F123" s="2">
         <v>25.519444444444446</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D124" s="1">
         <v>53</v>
@@ -3692,19 +3527,19 @@
       <c r="E124" s="1">
         <v>18</v>
       </c>
-      <c r="F124" s="6">
+      <c r="F124" s="2">
         <v>22.877777777777776</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D125" s="1">
         <v>54</v>
@@ -3712,11 +3547,11 @@
       <c r="E125" s="1">
         <v>18</v>
       </c>
-      <c r="F125" s="6">
+      <c r="F125" s="2">
         <v>22.738888888888887</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3724,7 +3559,7 @@
         <v>52</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D126" s="1">
         <v>55</v>
@@ -3732,19 +3567,19 @@
       <c r="E126" s="1">
         <v>19</v>
       </c>
-      <c r="F126" s="6">
+      <c r="F126" s="2">
         <v>27.586111111111112</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D127" s="1">
         <v>56</v>
@@ -3752,19 +3587,19 @@
       <c r="E127" s="1">
         <v>19</v>
       </c>
-      <c r="F127" s="6">
+      <c r="F127" s="2">
         <v>26.75</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D128" s="1">
         <v>57</v>
@@ -3772,11 +3607,11 @@
       <c r="E128" s="1">
         <v>19</v>
       </c>
-      <c r="F128" s="6">
+      <c r="F128" s="2">
         <v>23.197222222222223</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -3784,7 +3619,7 @@
         <v>33</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D129" s="1">
         <v>58</v>
@@ -3792,11 +3627,11 @@
       <c r="E129" s="1">
         <v>19</v>
       </c>
-      <c r="F129" s="6">
+      <c r="F129" s="2">
         <v>30.444444444444443</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3804,7 +3639,7 @@
         <v>14</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D130" s="1">
         <v>59</v>
@@ -3812,11 +3647,11 @@
       <c r="E130" s="1">
         <v>19</v>
       </c>
-      <c r="F130" s="6">
+      <c r="F130" s="2">
         <v>31.958333333333332</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -3824,7 +3659,7 @@
         <v>46</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D131" s="1">
         <v>32</v>
@@ -3832,11 +3667,11 @@
       <c r="E131" s="1">
         <v>19</v>
       </c>
-      <c r="F131" s="6">
+      <c r="F131" s="2">
         <v>30.494444444444444</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -3844,7 +3679,7 @@
         <v>30</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D132" s="1">
         <v>9</v>
@@ -3852,11 +3687,11 @@
       <c r="E132" s="1">
         <v>19</v>
       </c>
-      <c r="F132" s="6">
+      <c r="F132" s="2">
         <v>29.733333333333334</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3864,7 +3699,7 @@
         <v>55</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D133" s="1">
         <v>33</v>
@@ -3872,19 +3707,19 @@
       <c r="E133" s="1">
         <v>20</v>
       </c>
-      <c r="F133" s="6">
+      <c r="F133" s="2">
         <v>28.083333333333332</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D134" s="1">
         <v>34</v>
@@ -3892,19 +3727,19 @@
       <c r="E134" s="1">
         <v>20</v>
       </c>
-      <c r="F134" s="6">
+      <c r="F134" s="2">
         <v>26.18888888888889</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D135" s="1">
         <v>10</v>
@@ -3912,19 +3747,19 @@
       <c r="E135" s="1">
         <v>20</v>
       </c>
-      <c r="F135" s="6">
+      <c r="F135" s="2">
         <v>24.574999999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D136" s="1">
         <v>35</v>
@@ -3932,19 +3767,19 @@
       <c r="E136" s="1">
         <v>20</v>
       </c>
-      <c r="F136" s="6">
+      <c r="F136" s="2">
         <v>26.580555555555556</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D137" s="1">
         <v>36</v>
@@ -3952,19 +3787,19 @@
       <c r="E137" s="1">
         <v>20</v>
       </c>
-      <c r="F137" s="6">
+      <c r="F137" s="2">
         <v>22.852777777777778</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D138" s="1">
         <v>37</v>
@@ -3972,19 +3807,19 @@
       <c r="E138" s="1">
         <v>20</v>
       </c>
-      <c r="F138" s="6">
+      <c r="F138" s="2">
         <v>23.958333333333332</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D139" s="1">
         <v>38</v>
@@ -3992,11 +3827,11 @@
       <c r="E139" s="1">
         <v>20</v>
       </c>
-      <c r="F139" s="6">
+      <c r="F139" s="2">
         <v>26.016666666666666</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -4004,7 +3839,7 @@
         <v>44</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D140" s="1">
         <v>39</v>
@@ -4012,11 +3847,11 @@
       <c r="E140" s="1">
         <v>20</v>
       </c>
-      <c r="F140" s="6">
+      <c r="F140" s="2">
         <v>26.344444444444445</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -4024,7 +3859,7 @@
         <v>22</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D141" s="1">
         <v>60</v>
@@ -4032,19 +3867,19 @@
       <c r="E141" s="1">
         <v>20</v>
       </c>
-      <c r="F141" s="6">
+      <c r="F141" s="2">
         <v>31.502777777777776</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D142" s="1">
         <v>11</v>
@@ -4052,11 +3887,11 @@
       <c r="E142" s="1">
         <v>21</v>
       </c>
-      <c r="F142" s="6">
+      <c r="F142" s="2">
         <v>22.31388888888889</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -4064,7 +3899,7 @@
         <v>69</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D143" s="1">
         <v>12</v>
@@ -4072,19 +3907,19 @@
       <c r="E143" s="1">
         <v>21</v>
       </c>
-      <c r="F143" s="6">
+      <c r="F143" s="2">
         <v>28.888888888888889</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D144" s="1">
         <v>61</v>
@@ -4092,19 +3927,19 @@
       <c r="E144" s="1">
         <v>21</v>
       </c>
-      <c r="F144" s="6">
+      <c r="F144" s="2">
         <v>24.336111111111112</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D145" s="1">
         <v>40</v>
@@ -4112,19 +3947,19 @@
       <c r="E145" s="1">
         <v>21</v>
       </c>
-      <c r="F145" s="6">
+      <c r="F145" s="2">
         <v>23.75</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D146" s="1">
         <v>62</v>
@@ -4132,19 +3967,19 @@
       <c r="E146" s="1">
         <v>22</v>
       </c>
-      <c r="F146" s="6">
+      <c r="F146" s="2">
         <v>22.644444444444446</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D147" s="1">
         <v>63</v>
@@ -4152,19 +3987,19 @@
       <c r="E147" s="1">
         <v>22</v>
       </c>
-      <c r="F147" s="6">
+      <c r="F147" s="2">
         <v>23.583333333333332</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D148" s="1">
         <v>64</v>
@@ -4172,19 +4007,19 @@
       <c r="E148" s="1">
         <v>22</v>
       </c>
-      <c r="F148" s="6">
+      <c r="F148" s="2">
         <v>25.113888888888887</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D149" s="1">
         <v>13</v>
@@ -4192,11 +4027,11 @@
       <c r="E149" s="1">
         <v>22</v>
       </c>
-      <c r="F149" s="6">
+      <c r="F149" s="2">
         <v>25.116666666666667</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -4204,7 +4039,7 @@
         <v>13</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D150" s="1">
         <v>14</v>
@@ -4212,11 +4047,11 @@
       <c r="E150" s="1">
         <v>22</v>
       </c>
-      <c r="F150" s="6">
+      <c r="F150" s="2">
         <v>24.65</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -4224,7 +4059,7 @@
         <v>20</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D151" s="1">
         <v>41</v>
@@ -4232,19 +4067,19 @@
       <c r="E151" s="1">
         <v>23</v>
       </c>
-      <c r="F151" s="6">
+      <c r="F151" s="2">
         <v>25.097222222222221</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D152" s="1">
         <v>42</v>
@@ -4252,19 +4087,19 @@
       <c r="E152" s="1">
         <v>23</v>
       </c>
-      <c r="F152" s="6">
+      <c r="F152" s="2">
         <v>26.383333333333333</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D153" s="1">
         <v>65</v>
@@ -4272,19 +4107,19 @@
       <c r="E153" s="1">
         <v>24</v>
       </c>
-      <c r="F153" s="6">
+      <c r="F153" s="2">
         <v>23.480555555555554</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D154" s="1">
         <v>43</v>
@@ -4292,19 +4127,19 @@
       <c r="E154" s="1">
         <v>24</v>
       </c>
-      <c r="F154" s="6">
+      <c r="F154" s="2">
         <v>21.858333333333334</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D155" s="1">
         <v>44</v>
@@ -4312,19 +4147,19 @@
       <c r="E155" s="1">
         <v>24</v>
       </c>
-      <c r="F155" s="6">
+      <c r="F155" s="2">
         <v>21.394444444444446</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D156" s="1">
         <v>45</v>
@@ -4332,19 +4167,19 @@
       <c r="E156" s="1">
         <v>24</v>
       </c>
-      <c r="F156" s="6">
+      <c r="F156" s="2">
         <v>22.419444444444444</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D157" s="1">
         <v>15</v>
@@ -4352,19 +4187,19 @@
       <c r="E157" s="1">
         <v>24</v>
       </c>
-      <c r="F157" s="6">
+      <c r="F157" s="2">
         <v>30.744444444444444</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D158" s="1">
         <v>32</v>
@@ -4372,19 +4207,19 @@
       <c r="E158" s="1">
         <v>24</v>
       </c>
-      <c r="F158" s="6">
+      <c r="F158" s="2">
         <v>23.31388888888889</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D159" s="1">
         <v>16</v>
@@ -4392,19 +4227,19 @@
       <c r="E159" s="1">
         <v>25</v>
       </c>
-      <c r="F159" s="6">
+      <c r="F159" s="2">
         <v>29.772222222222222</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D160" s="1">
         <v>46</v>
@@ -4412,11 +4247,11 @@
       <c r="E160" s="1">
         <v>25</v>
       </c>
-      <c r="F160" s="6">
+      <c r="F160" s="2">
         <v>22.163888888888888</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -4424,7 +4259,7 @@
         <v>62</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D161" s="1">
         <v>33</v>
@@ -4432,11 +4267,11 @@
       <c r="E161" s="1">
         <v>25</v>
       </c>
-      <c r="F161" s="6">
+      <c r="F161" s="2">
         <v>36.50277777777778</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -4444,7 +4279,7 @@
         <v>18</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D162" s="1">
         <v>47</v>
@@ -4452,11 +4287,11 @@
       <c r="E162" s="1">
         <v>25</v>
       </c>
-      <c r="F162" s="6">
+      <c r="F162" s="2">
         <v>27.225000000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -4464,7 +4299,7 @@
         <v>68</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D163" s="1">
         <v>34</v>
@@ -4472,11 +4307,11 @@
       <c r="E163" s="1">
         <v>25</v>
       </c>
-      <c r="F163" s="6">
+      <c r="F163" s="2">
         <v>28.008333333333333</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -4484,7 +4319,7 @@
         <v>58</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D164" s="1">
         <v>48</v>
@@ -4492,19 +4327,19 @@
       <c r="E164" s="1">
         <v>25</v>
       </c>
-      <c r="F164" s="6">
+      <c r="F164" s="2">
         <v>27.269444444444446</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D165" s="1">
         <v>17</v>
@@ -4512,19 +4347,19 @@
       <c r="E165" s="1">
         <v>26</v>
       </c>
-      <c r="F165" s="6">
+      <c r="F165" s="2">
         <v>26.366666666666667</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D166" s="1">
         <v>66</v>
@@ -4532,11 +4367,11 @@
       <c r="E166" s="1">
         <v>26</v>
       </c>
-      <c r="F166" s="6">
+      <c r="F166" s="2">
         <v>27.988888888888887</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -4544,7 +4379,7 @@
         <v>38</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D167" s="1">
         <v>18</v>
@@ -4552,19 +4387,19 @@
       <c r="E167" s="1">
         <v>26</v>
       </c>
-      <c r="F167" s="6">
+      <c r="F167" s="2">
         <v>35.652777777777779</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D168" s="1">
         <v>49</v>
@@ -4572,19 +4407,19 @@
       <c r="E168" s="1">
         <v>26</v>
       </c>
-      <c r="F168" s="6">
+      <c r="F168" s="2">
         <v>21.361111111111111</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D169" s="1">
         <v>50</v>
@@ -4592,19 +4427,19 @@
       <c r="E169" s="1">
         <v>26</v>
       </c>
-      <c r="F169" s="6">
+      <c r="F169" s="2">
         <v>24.922222222222221</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D170" s="1">
         <v>19</v>
@@ -4612,19 +4447,19 @@
       <c r="E170" s="1">
         <v>26</v>
       </c>
-      <c r="F170" s="6">
+      <c r="F170" s="2">
         <v>24.425000000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D171" s="1">
         <v>51</v>
@@ -4632,19 +4467,19 @@
       <c r="E171" s="1">
         <v>26</v>
       </c>
-      <c r="F171" s="6">
+      <c r="F171" s="2">
         <v>24.333333333333332</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D172" s="1">
         <v>20</v>
@@ -4652,19 +4487,19 @@
       <c r="E172" s="1">
         <v>26</v>
       </c>
-      <c r="F172" s="6">
+      <c r="F172" s="2">
         <v>20.861111111111111</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D173" s="1">
         <v>67</v>
@@ -4672,19 +4507,19 @@
       <c r="E173" s="1">
         <v>26</v>
       </c>
-      <c r="F173" s="6">
+      <c r="F173" s="2">
         <v>22.472222222222221</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D174" s="1">
         <v>52</v>
@@ -4692,19 +4527,19 @@
       <c r="E174" s="1">
         <v>26</v>
       </c>
-      <c r="F174" s="6">
+      <c r="F174" s="2">
         <v>21.8</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D175" s="1">
         <v>68</v>
@@ -4712,19 +4547,19 @@
       <c r="E175" s="1">
         <v>27</v>
       </c>
-      <c r="F175" s="6">
+      <c r="F175" s="2">
         <v>25.130555555555556</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D176" s="1">
         <v>53</v>
@@ -4732,11 +4567,11 @@
       <c r="E176" s="1">
         <v>27</v>
       </c>
-      <c r="F176" s="6">
+      <c r="F176" s="2">
         <v>25.552777777777777</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4744,7 +4579,7 @@
         <v>57</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D177" s="1">
         <v>69</v>
@@ -4752,19 +4587,19 @@
       <c r="E177" s="1">
         <v>27</v>
       </c>
-      <c r="F177" s="6">
+      <c r="F177" s="2">
         <v>28.533333333333335</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D178" s="1">
         <v>54</v>
@@ -4772,19 +4607,19 @@
       <c r="E178" s="1">
         <v>27</v>
       </c>
-      <c r="F178" s="6">
+      <c r="F178" s="2">
         <v>20.711111111111112</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D179" s="1">
         <v>70</v>
@@ -4792,11 +4627,11 @@
       <c r="E179" s="1">
         <v>27</v>
       </c>
-      <c r="F179" s="6">
+      <c r="F179" s="2">
         <v>22.283333333333335</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -4804,7 +4639,7 @@
         <v>67</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D180" s="1">
         <v>35</v>
@@ -4812,19 +4647,19 @@
       <c r="E180" s="1">
         <v>28</v>
       </c>
-      <c r="F180" s="6">
+      <c r="F180" s="2">
         <v>36.780555555555559</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D181" s="1">
         <v>55</v>
@@ -4832,19 +4667,19 @@
       <c r="E181" s="1">
         <v>28</v>
       </c>
-      <c r="F181" s="6">
+      <c r="F181" s="2">
         <v>24.513888888888889</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D182" s="1">
         <v>71</v>
@@ -4852,11 +4687,11 @@
       <c r="E182" s="1">
         <v>28</v>
       </c>
-      <c r="F182" s="6">
+      <c r="F182" s="2">
         <v>25.586111111111112</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -4864,7 +4699,7 @@
         <v>53</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D183" s="1">
         <v>21</v>
@@ -4872,11 +4707,11 @@
       <c r="E183" s="1">
         <v>28</v>
       </c>
-      <c r="F183" s="6">
+      <c r="F183" s="2">
         <v>30.408333333333335</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -4884,7 +4719,7 @@
         <v>54</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D184" s="1">
         <v>22</v>
@@ -4892,19 +4727,19 @@
       <c r="E184" s="1">
         <v>28</v>
       </c>
-      <c r="F184" s="6">
+      <c r="F184" s="2">
         <v>26.597222222222221</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D185" s="1">
         <v>72</v>
@@ -4912,19 +4747,19 @@
       <c r="E185" s="1">
         <v>28</v>
       </c>
-      <c r="F185" s="6">
+      <c r="F185" s="2">
         <v>25.502777777777776</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D186" s="1">
         <v>73</v>
@@ -4932,19 +4767,19 @@
       <c r="E186" s="1">
         <v>28</v>
       </c>
-      <c r="F186" s="6">
+      <c r="F186" s="2">
         <v>26.05</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D187" s="1">
         <v>23</v>
@@ -4952,19 +4787,19 @@
       <c r="E187" s="1">
         <v>28</v>
       </c>
-      <c r="F187" s="6">
+      <c r="F187" s="2">
         <v>22.152777777777779</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D188" s="1">
         <v>24</v>
@@ -4972,19 +4807,19 @@
       <c r="E188" s="1">
         <v>28</v>
       </c>
-      <c r="F188" s="6">
+      <c r="F188" s="2">
         <v>21.06111111111111</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D189" s="1">
         <v>36</v>
@@ -4992,19 +4827,19 @@
       <c r="E189" s="1">
         <v>28</v>
       </c>
-      <c r="F189" s="6">
+      <c r="F189" s="2">
         <v>24.672222222222221</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D190" s="1">
         <v>37</v>
@@ -5012,19 +4847,19 @@
       <c r="E190" s="1">
         <v>28</v>
       </c>
-      <c r="F190" s="6">
+      <c r="F190" s="2">
         <v>40.37222222222222</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D191" s="1">
         <v>74</v>
@@ -5032,19 +4867,19 @@
       <c r="E191" s="1">
         <v>28</v>
       </c>
-      <c r="F191" s="6">
+      <c r="F191" s="2">
         <v>23.055555555555557</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D192" s="1">
         <v>56</v>
@@ -5052,19 +4887,19 @@
       <c r="E192" s="1">
         <v>28</v>
       </c>
-      <c r="F192" s="6">
+      <c r="F192" s="2">
         <v>24.402777777777779</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D193" s="1">
         <v>57</v>
@@ -5072,19 +4907,19 @@
       <c r="E193" s="1">
         <v>29</v>
       </c>
-      <c r="F193" s="6">
+      <c r="F193" s="2">
         <v>23.047222222222221</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D194" s="1">
         <v>75</v>
@@ -5092,19 +4927,19 @@
       <c r="E194" s="1">
         <v>29</v>
       </c>
-      <c r="F194" s="6">
+      <c r="F194" s="2">
         <v>23.955555555555556</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D195" s="1">
         <v>58</v>
@@ -5112,19 +4947,19 @@
       <c r="E195" s="1">
         <v>29</v>
       </c>
-      <c r="F195" s="6">
+      <c r="F195" s="2">
         <v>21.375</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D196" s="1">
         <v>76</v>
@@ -5132,19 +4967,19 @@
       <c r="E196" s="1">
         <v>29</v>
       </c>
-      <c r="F196" s="6">
+      <c r="F196" s="2">
         <v>23.733333333333334</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D197" s="1">
         <v>59</v>
@@ -5152,19 +4987,19 @@
       <c r="E197" s="1">
         <v>29</v>
       </c>
-      <c r="F197" s="6">
+      <c r="F197" s="2">
         <v>24.419444444444444</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D198" s="1">
         <v>60</v>
@@ -5172,19 +5007,19 @@
       <c r="E198" s="1">
         <v>29</v>
       </c>
-      <c r="F198" s="6">
+      <c r="F198" s="2">
         <v>25.125</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D199" s="1">
         <v>61</v>
@@ -5192,19 +5027,19 @@
       <c r="E199" s="1">
         <v>29</v>
       </c>
-      <c r="F199" s="6">
+      <c r="F199" s="2">
         <v>21.169444444444444</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D200" s="1">
         <v>62</v>
@@ -5212,19 +5047,19 @@
       <c r="E200" s="1">
         <v>29</v>
       </c>
-      <c r="F200" s="6">
+      <c r="F200" s="2">
         <v>21.761111111111113</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D201" s="1">
         <v>63</v>
@@ -5232,7 +5067,7 @@
       <c r="E201" s="1">
         <v>29</v>
       </c>
-      <c r="F201" s="6">
+      <c r="F201" s="2">
         <v>20.891666666666666</v>
       </c>
     </row>
